--- a/Argentina jogos Hoje.xlsx
+++ b/Argentina jogos Hoje.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31d575000e1d0804/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{96F60073-D792-4D80-978C-7EEFD8086C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{819B7534-45ED-4F9F-8533-D7149F3987FD}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{96F60073-D792-4D80-978C-7EEFD8086C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE8FBA5F-A410-44FF-85CE-727999627BC2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{383912C0-CBA0-4E5D-9C91-CEF5F821E9DD}"/>
   </bookViews>
@@ -586,7 +586,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -644,15 +644,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,6 +672,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -991,214 +999,214 @@
   <dimension ref="A1:BO72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="1" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1212,7 +1220,7 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>44134.791666666657</v>
       </c>
       <c r="E2">
@@ -1415,7 +1423,7 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>44134.885416666657</v>
       </c>
       <c r="E3">
@@ -1618,7 +1626,7 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>44135.583333333343</v>
       </c>
       <c r="E4">
@@ -1821,7 +1829,7 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>44135.677083333343</v>
       </c>
       <c r="E5">
@@ -2024,7 +2032,7 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>44135.78125</v>
       </c>
       <c r="E6">
@@ -2227,7 +2235,7 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>44135.885416666657</v>
       </c>
       <c r="E7">
@@ -2430,7 +2438,7 @@
       <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>44136.458333333343</v>
       </c>
       <c r="E8">
@@ -2633,7 +2641,7 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>44136.583333333343</v>
       </c>
       <c r="E9">
@@ -2836,7 +2844,7 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>44136.677083333343</v>
       </c>
       <c r="E10">
@@ -3039,7 +3047,7 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>44136.78125</v>
       </c>
       <c r="E11">
@@ -3242,7 +3250,7 @@
       <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <v>44137.885416666657</v>
       </c>
       <c r="E12">
@@ -3445,7 +3453,7 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="5">
         <v>44138.875</v>
       </c>
       <c r="E13">
@@ -3648,7 +3656,7 @@
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="5">
         <v>44141.791666666657</v>
       </c>
       <c r="E14">
@@ -3851,7 +3859,7 @@
       <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="5">
         <v>44141.885416666657</v>
       </c>
       <c r="E15">
@@ -4054,7 +4062,7 @@
       <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="5">
         <v>44142.666666666657</v>
       </c>
       <c r="E16">
@@ -4257,7 +4265,7 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
         <v>44142.770833333343</v>
       </c>
       <c r="E17">
@@ -4460,7 +4468,7 @@
       <c r="C18" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <v>44142.885416666657</v>
       </c>
       <c r="E18">
@@ -4663,7 +4671,7 @@
       <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="5">
         <v>44143.458333333343</v>
       </c>
       <c r="E19">
@@ -4866,7 +4874,7 @@
       <c r="C20" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="5">
         <v>44143.677083333343</v>
       </c>
       <c r="E20">
@@ -5069,7 +5077,7 @@
       <c r="C21" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="5">
         <v>44143.78125</v>
       </c>
       <c r="E21">
@@ -5272,7 +5280,7 @@
       <c r="C22" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="5">
         <v>44143.885416666657</v>
       </c>
       <c r="E22">
@@ -5475,7 +5483,7 @@
       <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="5">
         <v>44144.708333333343</v>
       </c>
       <c r="E23">
@@ -5678,7 +5686,7 @@
       <c r="C24" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="5">
         <v>44144.802083333343</v>
       </c>
       <c r="E24">
@@ -5881,7 +5889,7 @@
       <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="5">
         <v>44144.895833333343</v>
       </c>
       <c r="E25">
@@ -6084,7 +6092,7 @@
       <c r="C26" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="5">
         <v>44148.791666666657</v>
       </c>
       <c r="E26">
@@ -6287,7 +6295,7 @@
       <c r="C27" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="5">
         <v>44148.885416666657</v>
       </c>
       <c r="E27">
@@ -6490,7 +6498,7 @@
       <c r="C28" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="5">
         <v>44149.583333333343</v>
       </c>
       <c r="E28">
@@ -6693,7 +6701,7 @@
       <c r="C29" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="5">
         <v>44149.677083333343</v>
       </c>
       <c r="E29">
@@ -6896,7 +6904,7 @@
       <c r="C30" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="5">
         <v>44149.78125</v>
       </c>
       <c r="E30">
@@ -7099,7 +7107,7 @@
       <c r="C31" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="5">
         <v>44149.885416666657</v>
       </c>
       <c r="E31">
@@ -7302,7 +7310,7 @@
       <c r="C32" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="5">
         <v>44150.583333333343</v>
       </c>
       <c r="E32">
@@ -7505,7 +7513,7 @@
       <c r="C33" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="5">
         <v>44150.677083333343</v>
       </c>
       <c r="E33">
@@ -7708,7 +7716,7 @@
       <c r="C34" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="5">
         <v>44150.78125</v>
       </c>
       <c r="E34">
@@ -7911,7 +7919,7 @@
       <c r="C35" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="5">
         <v>44150.885416666657</v>
       </c>
       <c r="E35">
@@ -8114,7 +8122,7 @@
       <c r="C36" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="5">
         <v>44151.791666666657</v>
       </c>
       <c r="E36">
@@ -8317,7 +8325,7 @@
       <c r="C37" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="5">
         <v>44151.885416666657</v>
       </c>
       <c r="E37">
@@ -8520,7 +8528,7 @@
       <c r="C38" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="5">
         <v>44154.885416666657</v>
       </c>
       <c r="E38">
@@ -8723,7 +8731,7 @@
       <c r="C39" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="5">
         <v>44155.715277777781</v>
       </c>
       <c r="E39">
@@ -8926,7 +8934,7 @@
       <c r="C40" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="5">
         <v>44155.805555555547</v>
       </c>
       <c r="E40">
@@ -9129,7 +9137,7 @@
       <c r="C41" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="5">
         <v>44155.895833333343</v>
       </c>
       <c r="E41">
@@ -9332,7 +9340,7 @@
       <c r="C42" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="5">
         <v>44156.715277777781</v>
       </c>
       <c r="E42">
@@ -9535,7 +9543,7 @@
       <c r="C43" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="5">
         <v>44156.805555555547</v>
       </c>
       <c r="E43">
@@ -9738,7 +9746,7 @@
       <c r="C44" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="5">
         <v>44156.895833333343</v>
       </c>
       <c r="E44">
@@ -9941,7 +9949,7 @@
       <c r="C45" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="5">
         <v>44157.715277777781</v>
       </c>
       <c r="E45">
@@ -10144,7 +10152,7 @@
       <c r="C46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="5">
         <v>44157.805555555547</v>
       </c>
       <c r="E46">
@@ -10347,7 +10355,7 @@
       <c r="C47" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="5">
         <v>44157.895833333343</v>
       </c>
       <c r="E47">
@@ -10550,7 +10558,7 @@
       <c r="C48" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="5">
         <v>44158.791666666657</v>
       </c>
       <c r="E48">
@@ -10753,7 +10761,7 @@
       <c r="C49" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="5">
         <v>44158.885416666657</v>
       </c>
       <c r="E49">
@@ -10956,7 +10964,7 @@
       <c r="C50" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="5">
         <v>44163.715277777781</v>
       </c>
       <c r="E50">
@@ -11159,7 +11167,7 @@
       <c r="C51" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="5">
         <v>44163.805555555547</v>
       </c>
       <c r="E51">
@@ -11362,7 +11370,7 @@
       <c r="C52" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="5">
         <v>44163.805555555547</v>
       </c>
       <c r="E52">
@@ -11565,7 +11573,7 @@
       <c r="C53" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="5">
         <v>44163.895833333343</v>
       </c>
       <c r="E53">
@@ -11768,7 +11776,7 @@
       <c r="C54" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="5">
         <v>44163.895833333343</v>
       </c>
       <c r="E54">
@@ -11971,7 +11979,7 @@
       <c r="C55" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="5">
         <v>44164.715277777781</v>
       </c>
       <c r="E55">
@@ -12174,7 +12182,7 @@
       <c r="C56" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="5">
         <v>44164.805555555547</v>
       </c>
       <c r="E56">
@@ -12377,7 +12385,7 @@
       <c r="C57" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="5">
         <v>44164.895833333343</v>
       </c>
       <c r="E57">
@@ -12580,7 +12588,7 @@
       <c r="C58" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="5">
         <v>44164.895833333343</v>
       </c>
       <c r="E58">
@@ -12783,7 +12791,7 @@
       <c r="C59" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="5">
         <v>44165.715277777781</v>
       </c>
       <c r="E59">
@@ -12986,7 +12994,7 @@
       <c r="C60" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="5">
         <v>44165.805555555547</v>
       </c>
       <c r="E60">
@@ -13189,7 +13197,7 @@
       <c r="C61" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="5">
         <v>44165.895833333343</v>
       </c>
       <c r="E61">
@@ -13392,7 +13400,7 @@
       <c r="C62" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="5">
         <v>44169.805555555547</v>
       </c>
       <c r="E62">
@@ -13595,7 +13603,7 @@
       <c r="C63" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="5">
         <v>44169.895833333343</v>
       </c>
       <c r="E63">
@@ -13798,7 +13806,7 @@
       <c r="C64" t="s">
         <v>1</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="5">
         <v>44170.715277777781</v>
       </c>
       <c r="E64">
@@ -14001,7 +14009,7 @@
       <c r="C65" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="5">
         <v>44170.715277777781</v>
       </c>
       <c r="E65">
@@ -14204,7 +14212,7 @@
       <c r="C66" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="5">
         <v>44170.805555555547</v>
       </c>
       <c r="E66">
@@ -14407,7 +14415,7 @@
       <c r="C67" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="5">
         <v>44170.805555555547</v>
       </c>
       <c r="E67">
@@ -14610,7 +14618,7 @@
       <c r="C68" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="5">
         <v>44170.895833333343</v>
       </c>
       <c r="E68">
@@ -14813,7 +14821,7 @@
       <c r="C69" t="s">
         <v>1</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="5">
         <v>44171.798611111109</v>
       </c>
       <c r="E69">
@@ -15016,7 +15024,7 @@
       <c r="C70" t="s">
         <v>1</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="5">
         <v>44171.895833333343</v>
       </c>
       <c r="E70">
@@ -15219,7 +15227,7 @@
       <c r="C71" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="5">
         <v>44171.895833333343</v>
       </c>
       <c r="E71">
@@ -15422,7 +15430,7 @@
       <c r="C72" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="5">
         <v>44172.798611111109</v>
       </c>
       <c r="E72">
